--- a/C - BOM and Cust Sheets/BOM.xlsx
+++ b/C - BOM and Cust Sheets/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Documents\ECE6780_StandingDesk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Documents\Embedded sys Project\ECE6780_StandingDesk\C - BOM and Cust Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{452DF879-2879-42AE-97C0-DEDBF312F7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5630A8B1-3103-49A0-AB92-CF07D3A7C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{122944FD-079D-4455-8209-CC22F3F885C9}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{122944FD-079D-4455-8209-CC22F3F885C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
   <si>
     <t>URL</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>eBoot</t>
+  </si>
+  <si>
+    <t>LM3940IT-3.3</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 1A TO220-3</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/LM3940IT-3-3/3695215</t>
   </si>
 </sst>
 </file>
@@ -402,15 +414,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -437,6 +440,15 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -451,19 +463,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{55ED841E-14AA-4001-98ED-D0968664ECD2}" name="Table2" displayName="Table2" ref="A1:J26" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{55ED841E-14AA-4001-98ED-D0968664ECD2}" name="Table2" displayName="Table2" ref="A1:J26" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J26" xr:uid="{55ED841E-14AA-4001-98ED-D0968664ECD2}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8F321282-86BF-41B4-AF4D-12C537C7B76A}" name="ITEM" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{64568786-8022-473A-B0D0-C6CFA3ED9AFC}" name="QTY" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{F3B7D799-5D80-41DC-AAD1-729517D3F1D6}" name="PURCH" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{2AA7915F-CB0B-4741-985A-3C651009BBD6}" name="REV'D" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A8A323F3-7A5C-4198-975B-50F02549C098}" name="PART NO." dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{0B271F86-8D2F-40B3-8EDC-4435A28DCCAF}" name="DESCRIPTION" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{4C9A8CEE-BAFB-4034-95A9-D467A1F1C5A2}" name="MFR" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{2381730A-275E-48E8-88FF-6C27246B8812}" name="VEN" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{D7BD08C2-C7D1-4A08-BCC5-B48B137C7992}" name="TAG" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{B626EB35-31D7-445D-84CA-0EAFA234D7C9}" name="URL" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{8F321282-86BF-41B4-AF4D-12C537C7B76A}" name="ITEM" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{64568786-8022-473A-B0D0-C6CFA3ED9AFC}" name="QTY" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{F3B7D799-5D80-41DC-AAD1-729517D3F1D6}" name="PURCH" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{2AA7915F-CB0B-4741-985A-3C651009BBD6}" name="REV'D" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A8A323F3-7A5C-4198-975B-50F02549C098}" name="PART NO." dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{0B271F86-8D2F-40B3-8EDC-4435A28DCCAF}" name="DESCRIPTION" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4C9A8CEE-BAFB-4034-95A9-D467A1F1C5A2}" name="MFR" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{2381730A-275E-48E8-88FF-6C27246B8812}" name="VEN" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D7BD08C2-C7D1-4A08-BCC5-B48B137C7992}" name="TAG" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{B626EB35-31D7-445D-84CA-0EAFA234D7C9}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -768,25 +780,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895A44BA-6A4A-4E92-9C02-D66427B62908}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="76.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2"/>
+    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -818,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -848,7 +860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -878,7 +890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -908,7 +920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -938,7 +950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -968,7 +980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1058,7 +1070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1088,7 +1100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1119,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1149,7 +1161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1179,7 +1191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1209,7 +1221,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1310,7 +1322,7 @@
       <c r="F18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1368,18 +1380,36 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1408,8 +1438,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
       <c r="B23" s="4">
         <v>1</v>
       </c>
@@ -1433,9 +1465,9 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -1462,9 +1494,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4">
         <v>6</v>
@@ -1489,8 +1521,10 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
       <c r="B26" s="4">
         <v>2</v>
       </c>
@@ -1515,7 +1549,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1542,11 +1576,12 @@
     <hyperlink ref="J2" r:id="rId18" xr:uid="{D9FFC98F-F7EB-4BE8-B1A6-F78D35DC8104}"/>
     <hyperlink ref="J19" r:id="rId19" display="https://www.digikey.com/en/products/detail/kycon,-inc./KLDX-0202-A/9975992?utm_adgroup=Barrel%20-%20Power%20Connectors&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Shopping_Product_Connectors%2C%20Interconnects_NEW&amp;utm_term=&amp;utm_content=Barrel%20-%20Power%20Connectors&amp;gclid=CjwKCAjwloCSBhAeEiwA3hVo_RbjmFc_44a8LPW_3dvF5z0IjKtA44DdC1Y0duYlAsmQYluRCIlWihoC-awQAvD_BwE" xr:uid="{CC45368F-BBB6-4CD4-B097-8AE7AED046F0}"/>
     <hyperlink ref="J20" r:id="rId20" display="https://www.amazon.com/MP1584EN-DC-DC-Converter-Adjustable-Module/dp/B01MQGMOKI/ref=sr_1_33_sspa?keywords=24v%2Bto%2B5v%2Bdc%2Bconverter&amp;qid=1648410049&amp;sr=8-33-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyODdWSE9LQjlOTEdUJmVuY3J5cHRlZElkPUEwMDExMTkzMTFUMVJVMUFYR0xLQyZlbmNyeXB0ZWRBZElkPUEwNjU4NTQ5MjgyVUVYN0lEQ05DSiZ3aWRnZXROYW1lPXNwX2F0Zl9uZXh0JmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1" xr:uid="{A6988643-5205-447D-B043-C772C7E57BC9}"/>
+    <hyperlink ref="J21" r:id="rId21" xr:uid="{4B925D8C-63D4-44CC-B4EC-BACC7E685E08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>

--- a/C - BOM and Cust Sheets/BOM.xlsx
+++ b/C - BOM and Cust Sheets/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Documents\Embedded sys Project\ECE6780_StandingDesk\C - BOM and Cust Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5630A8B1-3103-49A0-AB92-CF07D3A7C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201695F0-0EE0-4012-A083-C8605E92A5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{122944FD-079D-4455-8209-CC22F3F885C9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{122944FD-079D-4455-8209-CC22F3F885C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <t>eBoot</t>
   </si>
   <si>
-    <t>LM3940IT-3.3</t>
-  </si>
-  <si>
     <t>IC REG LINEAR 3.3V 1A TO220-3</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/texas-instruments/LM3940IT-3-3/3695215</t>
+  </si>
+  <si>
+    <t>LD1117-3.3</t>
   </si>
 </sst>
 </file>
@@ -339,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,13 +355,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -407,12 +431,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -430,15 +490,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -467,15 +518,15 @@
   <autoFilter ref="A1:J26" xr:uid="{55ED841E-14AA-4001-98ED-D0968664ECD2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{8F321282-86BF-41B4-AF4D-12C537C7B76A}" name="ITEM" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{64568786-8022-473A-B0D0-C6CFA3ED9AFC}" name="QTY" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{F3B7D799-5D80-41DC-AAD1-729517D3F1D6}" name="PURCH" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{2AA7915F-CB0B-4741-985A-3C651009BBD6}" name="REV'D" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A8A323F3-7A5C-4198-975B-50F02549C098}" name="PART NO." dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{0B271F86-8D2F-40B3-8EDC-4435A28DCCAF}" name="DESCRIPTION" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{4C9A8CEE-BAFB-4034-95A9-D467A1F1C5A2}" name="MFR" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{2381730A-275E-48E8-88FF-6C27246B8812}" name="VEN" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D7BD08C2-C7D1-4A08-BCC5-B48B137C7992}" name="TAG" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{B626EB35-31D7-445D-84CA-0EAFA234D7C9}" name="URL" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{64568786-8022-473A-B0D0-C6CFA3ED9AFC}" name="QTY" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{F3B7D799-5D80-41DC-AAD1-729517D3F1D6}" name="PURCH" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{2AA7915F-CB0B-4741-985A-3C651009BBD6}" name="REV'D" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A8A323F3-7A5C-4198-975B-50F02549C098}" name="PART NO." dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{0B271F86-8D2F-40B3-8EDC-4435A28DCCAF}" name="DESCRIPTION" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{4C9A8CEE-BAFB-4034-95A9-D467A1F1C5A2}" name="MFR" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{2381730A-275E-48E8-88FF-6C27246B8812}" name="VEN" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{D7BD08C2-C7D1-4A08-BCC5-B48B137C7992}" name="TAG" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B626EB35-31D7-445D-84CA-0EAFA234D7C9}" name="URL" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -781,7 +832,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,13 +885,13 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="11">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="11">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -867,8 +918,8 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
+      <c r="C3" s="13">
+        <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -897,8 +948,8 @@
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
+      <c r="C4" s="13">
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -927,8 +978,8 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
+      <c r="C5" s="13">
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -957,7 +1008,7 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="15">
         <v>0</v>
       </c>
       <c r="D6" s="4">
@@ -987,7 +1038,7 @@
       <c r="B7" s="4">
         <v>11</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="15">
         <v>0</v>
       </c>
       <c r="D7" s="4">
@@ -1017,7 +1068,7 @@
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="15">
         <v>0</v>
       </c>
       <c r="D8" s="4">
@@ -1047,7 +1098,7 @@
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="15">
         <v>0</v>
       </c>
       <c r="D9" s="4">
@@ -1077,7 +1128,7 @@
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="15">
         <v>0</v>
       </c>
       <c r="D10" s="4">
@@ -1107,10 +1158,12 @@
       <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="C11" s="13">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
@@ -1135,13 +1188,13 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -1168,8 +1221,8 @@
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
+      <c r="C13" s="13">
+        <v>1</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -1195,13 +1248,13 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="12">
         <v>2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="11">
         <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -1228,8 +1281,8 @@
       <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
+      <c r="C15" s="13">
+        <v>2</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -1255,13 +1308,13 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="12">
         <v>2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="11">
         <v>2</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -1285,13 +1338,13 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
         <v>1</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -1316,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="4"/>
       <c r="E18" s="10"/>
       <c r="F18" s="8"/>
@@ -1329,8 +1382,8 @@
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
+      <c r="C19" s="13">
+        <v>1</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -1358,8 +1411,8 @@
       <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
+      <c r="C20" s="13">
+        <v>1</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -1387,39 +1440,39 @@
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="4">
-        <v>0</v>
+      <c r="C21" s="13">
+        <v>1</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
         <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -1442,13 +1495,13 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -1472,8 +1525,8 @@
       <c r="B24" s="4">
         <v>1</v>
       </c>
-      <c r="C24" s="4">
-        <v>0</v>
+      <c r="C24" s="13">
+        <v>1</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -1498,13 +1551,13 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="11">
         <v>6</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="12">
         <v>6</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="11">
         <v>6</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -1525,13 +1578,13 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="11">
         <v>2</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="12">
         <v>2</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="11">
         <v>2</v>
       </c>
       <c r="E26" s="6" t="s">
